--- a/TUGAS3/Tugas normalisasi.xlsx
+++ b/TUGAS3/Tugas normalisasi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
   <si>
     <t>no pengajuan</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>id satuan kerja</t>
+  </si>
+  <si>
+    <t>Tabel</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M67"/>
+  <dimension ref="B2:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,6 +640,11 @@
     <col min="12" max="12" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="3" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
